--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,40 +399,40 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>141</v>
+        <v>411</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>168</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>147</v>
+        <v>414</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -443,164 +443,164 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>202</v>
+        <v>439</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>326</v>
+        <v>950</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>362</v>
+        <v>1742</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>152</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>440</v>
+        <v>1886</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>997</v>
+        <v>2492</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>260</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1742</v>
+        <v>3442</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>2878</v>
+        <v>3495</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>3442</v>
+        <v>3892</v>
       </c>
       <c r="B13">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>3894</v>
+        <v>3896</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>5005</v>
+        <v>5208</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>145</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>5007</v>
+        <v>6540</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C16">
-        <v>142</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>5452</v>
+        <v>7567</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>6097</v>
+        <v>9288</v>
       </c>
       <c r="B18">
         <v>29</v>
       </c>
       <c r="C18">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>7567</v>
+        <v>11768</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>8648</v>
+        <v>11769</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -608,10 +608,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>9996</v>
+        <v>11954</v>
       </c>
       <c r="B21">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -619,178 +619,90 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>10719</v>
+        <v>13041</v>
       </c>
       <c r="B22">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>110</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>11234</v>
+        <v>13167</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>201</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>11710</v>
+        <v>20252</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>145</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>11719</v>
+        <v>20650</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>11768</v>
+        <v>21463</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>11846</v>
+        <v>24126</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>319</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>11942</v>
+        <v>24725</v>
       </c>
       <c r="B28">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>107</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>12562</v>
+        <v>24727</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>13167</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>13175</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>20956</v>
-      </c>
-      <c r="B32">
-        <v>7</v>
-      </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>21700</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>21701</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>22330</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>23234</v>
-      </c>
-      <c r="B36">
-        <v>29</v>
-      </c>
-      <c r="C36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>24126</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>271</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,40 +399,40 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>158</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>145</v>
+        <v>409</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>171</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>414</v>
+        <v>1743</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -443,32 +443,32 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>439</v>
+        <v>2336</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>93</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>950</v>
+        <v>3334</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>64</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1742</v>
+        <v>4076</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -476,73 +476,73 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1886</v>
+        <v>5076</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>164</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>2492</v>
+        <v>6497</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>3442</v>
+        <v>7004</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>3495</v>
+        <v>7707</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1083</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>3892</v>
+        <v>7708</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>125</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>3896</v>
+        <v>7885</v>
       </c>
       <c r="B14">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>101</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>5208</v>
+        <v>9204</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -553,40 +553,40 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>6540</v>
+        <v>9964</v>
       </c>
       <c r="B16">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>7567</v>
+        <v>10149</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>9288</v>
+        <v>11769</v>
       </c>
       <c r="B18">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>11768</v>
+        <v>12345</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -597,10 +597,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>11769</v>
+        <v>12588</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -608,29 +608,29 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>11954</v>
+        <v>12883</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>13041</v>
+        <v>12924</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>167</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>13167</v>
+        <v>13163</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -641,54 +641,54 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>20252</v>
+        <v>13174</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>20650</v>
+        <v>13180</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>21463</v>
+        <v>20927</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>24126</v>
+        <v>23040</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>271</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>24725</v>
+        <v>23438</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -696,13 +696,35 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>24727</v>
+        <v>24722</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29">
-        <v>71</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>24723</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>24728</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,76 +399,76 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>97</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>409</v>
+        <v>336</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>439</v>
+        <v>345</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>92</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1743</v>
+        <v>944</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2336</v>
+        <v>1000</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>638</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>3334</v>
+        <v>1274</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>185</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>4076</v>
+        <v>3230</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -476,172 +476,172 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>5076</v>
+        <v>3338</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>136</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>6497</v>
+        <v>3462</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>7004</v>
+        <v>4232</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>7707</v>
+        <v>4253</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>192</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>7708</v>
+        <v>4327</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>192</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>7885</v>
+        <v>4940</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>9204</v>
+        <v>5976</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>9964</v>
+        <v>6936</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>10149</v>
+        <v>7707</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>11769</v>
+        <v>7885</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>12345</v>
+        <v>8355</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>12588</v>
+        <v>8356</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>12883</v>
+        <v>9288</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>373</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>12924</v>
+        <v>9613</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>13163</v>
+        <v>10149</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>13174</v>
+        <v>10410</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>13180</v>
+        <v>11812</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -663,29 +663,29 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>20927</v>
+        <v>11965</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>23040</v>
+        <v>12250</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>23438</v>
+        <v>12883</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -696,35 +696,112 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>24722</v>
+        <v>12888</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>24723</v>
+        <v>13165</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>24728</v>
+        <v>13167</v>
       </c>
       <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>13283</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>20978</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>21701</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>23234</v>
+      </c>
+      <c r="B35">
+        <v>29</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>23438</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>24132</v>
+      </c>
+      <c r="B37">
         <v>2</v>
       </c>
-      <c r="C31">
-        <v>63</v>
+      <c r="C37">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>24256</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,409 +399,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>74</v>
+        <v>5076</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>216</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>336</v>
+        <v>6872</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C3">
-        <v>118</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>345</v>
+        <v>8677</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>944</v>
+        <v>12304</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1000</v>
+        <v>12764</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>117</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1274</v>
+        <v>21793</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>3230</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>3338</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>3462</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>4232</v>
-      </c>
-      <c r="B11">
-        <v>29</v>
-      </c>
-      <c r="C11">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>4253</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>4327</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>4940</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>5976</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>6936</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>7707</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>7885</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>8355</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>8356</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>9288</v>
-      </c>
-      <c r="B21">
-        <v>29</v>
-      </c>
-      <c r="C21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>9613</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>10149</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>10410</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>11812</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>11965</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>12250</v>
-      </c>
-      <c r="B27">
-        <v>14</v>
-      </c>
-      <c r="C27">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>12883</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>12888</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>13165</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>13167</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>13283</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>20978</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>21701</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>23234</v>
-      </c>
-      <c r="B35">
-        <v>29</v>
-      </c>
-      <c r="C35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>23438</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>24132</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>24256</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>150</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,68 +399,145 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>5076</v>
+        <v>192</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>6872</v>
+        <v>432</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>8677</v>
+        <v>434</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>327</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>12304</v>
+        <v>1007</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>122</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>12764</v>
+        <v>2336</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>67</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
+        <v>3670</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>3893</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5076</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>8677</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>11952</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>12349</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
         <v>21793</v>
       </c>
-      <c r="B7">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>260</v>
+      <c r="C13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>23239</v>
+      </c>
+      <c r="B14">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,32 +399,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>192</v>
+        <v>412</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -432,43 +432,43 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1007</v>
+        <v>523</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>296</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2336</v>
+        <v>7004</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>651</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>3670</v>
+        <v>7036</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>251</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>3893</v>
+        <v>8939</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -476,43 +476,43 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>5076</v>
+        <v>9507</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>8677</v>
+        <v>9760</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>11952</v>
+        <v>12350</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>221</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>12349</v>
+        <v>23238</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -520,23 +520,12 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>21793</v>
+        <v>24567</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>23239</v>
-      </c>
-      <c r="B14">
-        <v>29</v>
-      </c>
-      <c r="C14">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,32 +399,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>412</v>
+        <v>61</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>417</v>
+        <v>143</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>179</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -432,46 +432,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>523</v>
+        <v>413</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>169</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>7004</v>
+        <v>417</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>7036</v>
+        <v>2497</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>138</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>8939</v>
+        <v>8356</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -487,45 +487,23 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>9760</v>
+        <v>11683</v>
       </c>
       <c r="B10">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>80</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>12350</v>
+        <v>23239</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>23238</v>
-      </c>
-      <c r="B12">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>24567</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,43 +399,43 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>412</v>
+        <v>192</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>413</v>
+        <v>995</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -443,67 +443,78 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>417</v>
+        <v>2497</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>179</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2497</v>
+        <v>8356</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>8356</v>
+        <v>9760</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C8">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>9507</v>
+        <v>11681</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>11683</v>
+        <v>23239</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>23239</v>
+        <v>24257</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>24258</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,73 +405,73 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>61</v>
+        <v>205</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>192</v>
+        <v>2054</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>995</v>
+        <v>3478</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2497</v>
+        <v>3840</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>8356</v>
+        <v>6097</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C7">
-        <v>98</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>9760</v>
+        <v>8356</v>
       </c>
       <c r="B8">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -487,10 +487,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>23239</v>
+        <v>11844</v>
       </c>
       <c r="B10">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>24257</v>
+        <v>12924</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -509,12 +509,23 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>24258</v>
+        <v>23238</v>
       </c>
       <c r="B12">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>24567</v>
+      </c>
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,68 +399,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>121</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>205</v>
+        <v>434</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2054</v>
+        <v>2050</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>3478</v>
+        <v>3840</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>84</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>3840</v>
+        <v>3893</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>188</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>6097</v>
+        <v>8054</v>
       </c>
       <c r="B7">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,61 +471,39 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>11681</v>
+        <v>11158</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>11844</v>
+        <v>11683</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>12924</v>
+        <v>24566</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>23238</v>
-      </c>
-      <c r="B12">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>24567</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,112 +399,783 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>434</v>
+        <v>143</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>108</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2050</v>
+        <v>144</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>517</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>3840</v>
+        <v>159</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>188</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>3893</v>
+        <v>335</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>8054</v>
+        <v>416</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>8356</v>
+        <v>434</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>11158</v>
+        <v>440</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>11683</v>
+        <v>448</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>24566</v>
+        <v>615</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>616</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>624</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>950</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>991</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1126</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1309</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1492</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>1504</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>1801</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>2188</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>2331</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>2422</v>
+      </c>
+      <c r="B23">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>2497</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>2912</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>3450</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>3495</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>3610</v>
+      </c>
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>3674</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>3889</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>3891</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>3892</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>4001</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>5165</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>5491</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>5538</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>6098</v>
+      </c>
+      <c r="B37">
+        <v>29</v>
+      </c>
+      <c r="C37">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>6158</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>6496</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>7558</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>7630</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>8054</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>8356</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>8938</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>9065</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>9491</v>
+      </c>
+      <c r="B46">
+        <v>21</v>
+      </c>
+      <c r="C46">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>9760</v>
+      </c>
+      <c r="B47">
+        <v>29</v>
+      </c>
+      <c r="C47">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>10149</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>10507</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>10993</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>11150</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>11158</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>11426</v>
+      </c>
+      <c r="B53">
+        <v>29</v>
+      </c>
+      <c r="C53">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>11467</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>11586</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>11683</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>11772</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>11887</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>12304</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>12344</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>12353</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>12504</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>12791</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>13280</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>13893</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>18964</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>19685</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>21793</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>24253</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>24257</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>24258</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>24724</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,106 +399,106 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>335</v>
+        <v>159</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>1451</v>
+        <v>808</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>416</v>
+        <v>201</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>434</v>
+        <v>205</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>440</v>
+        <v>214</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>225</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>448</v>
+        <v>305</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>53</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>615</v>
+        <v>307</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -509,219 +509,219 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>616</v>
+        <v>332</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>624</v>
+        <v>335</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>112</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>950</v>
+        <v>345</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>65</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>991</v>
+        <v>361</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>59</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1126</v>
+        <v>440</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1309</v>
+        <v>474</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1492</v>
+        <v>515</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C18">
-        <v>41</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1504</v>
+        <v>972</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>681</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1801</v>
+        <v>990</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>2188</v>
+        <v>997</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>2331</v>
+        <v>998</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>137</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2422</v>
+        <v>1007</v>
       </c>
       <c r="B23">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>43</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>2497</v>
+        <v>1243</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24">
-        <v>181</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2912</v>
+        <v>1429</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>54</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>3450</v>
+        <v>1490</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>3495</v>
+        <v>1492</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>1133</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>3610</v>
+        <v>1598</v>
       </c>
       <c r="B28">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C28">
-        <v>234</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>3674</v>
+        <v>1599</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>3889</v>
+        <v>2054</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>3891</v>
+        <v>2423</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -729,452 +729,595 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>3892</v>
+        <v>2438</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>127</v>
+        <v>727</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>4001</v>
+        <v>2912</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>916</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>5165</v>
+        <v>3451</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>5491</v>
+        <v>3495</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>113</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>5538</v>
+        <v>3610</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C36">
-        <v>190</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>6098</v>
+        <v>3892</v>
       </c>
       <c r="B37">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>43</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>6158</v>
+        <v>3899</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>288</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>6496</v>
+        <v>3909</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>7558</v>
+        <v>4030</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C40">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>7630</v>
+        <v>4232</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>8054</v>
+        <v>4867</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42">
-        <v>206</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>8356</v>
+        <v>5165</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>98</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>8938</v>
+        <v>5584</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>176</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>9065</v>
+        <v>6158</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45">
-        <v>342</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>9491</v>
+        <v>6540</v>
       </c>
       <c r="B46">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C46">
-        <v>2584</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>9760</v>
+        <v>6965</v>
       </c>
       <c r="B47">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>10149</v>
+        <v>7004</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>1025</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>10507</v>
+        <v>7084</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>83</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>10993</v>
+        <v>7457</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>60</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>11150</v>
+        <v>7558</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>11158</v>
+        <v>8054</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52">
-        <v>560</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>11426</v>
+        <v>8915</v>
       </c>
       <c r="B53">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>45</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>11467</v>
+        <v>8927</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>11586</v>
+        <v>9358</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>452</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>11683</v>
+        <v>9507</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56">
-        <v>341</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>11772</v>
+        <v>9864</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C57">
-        <v>235</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>11887</v>
+        <v>10507</v>
       </c>
       <c r="B58">
         <v>2</v>
       </c>
       <c r="C58">
-        <v>217</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>12304</v>
+        <v>10717</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>12344</v>
+        <v>11089</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>12353</v>
+        <v>11150</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>12504</v>
+        <v>11306</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>90</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>12791</v>
+        <v>11402</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>13280</v>
+        <v>11586</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>358</v>
+        <v>482</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>13893</v>
+        <v>11687</v>
       </c>
       <c r="B65">
         <v>2</v>
       </c>
       <c r="C65">
-        <v>317</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>18964</v>
+        <v>11772</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
-        <v>76</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>19685</v>
+        <v>11846</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>39</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>21793</v>
+        <v>11855</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>24253</v>
+        <v>11885</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>24257</v>
+        <v>11886</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>157</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>24258</v>
+        <v>11887</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
+        <v>11960</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>12010</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>12348</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>12536</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>12539</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>12791</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>12923</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>13115</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>13962</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>14037</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>20223</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>20927</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>21686</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
         <v>24724</v>
       </c>
-      <c r="B72">
-        <v>2</v>
-      </c>
-      <c r="C72">
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
         <v>66</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,40 +405,40 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>172</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>157</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>284</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,169 +449,169 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>348</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>205</v>
+        <v>335</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>120</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>214</v>
+        <v>345</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>731</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>305</v>
+        <v>434</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>168</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>307</v>
+        <v>440</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>332</v>
+        <v>515</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>82</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>335</v>
+        <v>624</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>1479</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>345</v>
+        <v>955</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>348</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>361</v>
+        <v>972</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>172</v>
+        <v>666</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>440</v>
+        <v>995</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>224</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>474</v>
+        <v>1309</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>515</v>
+        <v>1407</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>241</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>972</v>
+        <v>1446</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>681</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>990</v>
+        <v>1504</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>997</v>
+        <v>1598</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -619,197 +619,197 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>998</v>
+        <v>1599</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="C22">
-        <v>260</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1007</v>
+        <v>1703</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23">
-        <v>301</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1243</v>
+        <v>1801</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>113</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1429</v>
+        <v>2105</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>147</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1490</v>
+        <v>2188</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1492</v>
+        <v>2331</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1598</v>
+        <v>2423</v>
       </c>
       <c r="B28">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1599</v>
+        <v>2424</v>
       </c>
       <c r="B29">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>2054</v>
+        <v>2774</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>531</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>2423</v>
+        <v>2912</v>
       </c>
       <c r="B31">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2438</v>
+        <v>3610</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C32">
-        <v>727</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>2912</v>
+        <v>3840</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>55</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>3451</v>
+        <v>5005</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>3495</v>
+        <v>5153</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>1183</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>3610</v>
+        <v>5491</v>
       </c>
       <c r="B36">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>236</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>3892</v>
+        <v>5538</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>128</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>3899</v>
+        <v>5539</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>3909</v>
+        <v>5541</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>8</v>
@@ -817,87 +817,87 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>4030</v>
+        <v>5660</v>
       </c>
       <c r="B40">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>126</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>4232</v>
+        <v>5812</v>
       </c>
       <c r="B41">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>168</v>
+        <v>675</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>4867</v>
+        <v>6158</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>5165</v>
+        <v>6540</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C43">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>5584</v>
+        <v>6935</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>265</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>6158</v>
+        <v>7084</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>291</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>6540</v>
+        <v>8106</v>
       </c>
       <c r="B46">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C46">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>6965</v>
+        <v>8157</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -905,172 +905,172 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>7004</v>
+        <v>8356</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>7084</v>
+        <v>8754</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>144</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>7457</v>
+        <v>8915</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>257</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>7558</v>
+        <v>9182</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>77</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>8054</v>
+        <v>9358</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52">
-        <v>217</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>8915</v>
+        <v>9760</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C53">
-        <v>179</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>8927</v>
+        <v>11039</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>9358</v>
+        <v>11226</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>9507</v>
+        <v>11396</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>227</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>9864</v>
+        <v>11467</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>10507</v>
+        <v>11504</v>
       </c>
       <c r="B58">
         <v>2</v>
       </c>
       <c r="C58">
-        <v>84</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>10717</v>
+        <v>11582</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>11089</v>
+        <v>11844</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>192</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>11150</v>
+        <v>11855</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>394</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>11306</v>
+        <v>11887</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>11402</v>
+        <v>11895</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1081,244 +1081,123 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>11586</v>
+        <v>12304</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>482</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>11687</v>
+        <v>12536</v>
       </c>
       <c r="B65">
         <v>2</v>
       </c>
       <c r="C65">
-        <v>347</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>11772</v>
+        <v>12538</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>502</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>11846</v>
+        <v>13114</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>308</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>11855</v>
+        <v>20555</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68">
-        <v>118</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>11885</v>
+        <v>21793</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>225</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>11886</v>
+        <v>24252</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>231</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>11887</v>
+        <v>24253</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>225</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>11960</v>
+        <v>24566</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>12010</v>
+        <v>24707</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
       <c r="C73">
-        <v>174</v>
+        <v>702</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>12348</v>
+        <v>24724</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75">
-        <v>12536</v>
-      </c>
-      <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="C75">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76">
-        <v>12539</v>
-      </c>
-      <c r="B76">
-        <v>2</v>
-      </c>
-      <c r="C76">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77">
-        <v>12791</v>
-      </c>
-      <c r="B77">
-        <v>2</v>
-      </c>
-      <c r="C77">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78">
-        <v>12923</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79">
-        <v>13115</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80">
-        <v>13962</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81">
-        <v>14037</v>
-      </c>
-      <c r="B81">
-        <v>3</v>
-      </c>
-      <c r="C81">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82">
-        <v>20223</v>
-      </c>
-      <c r="B82">
-        <v>3</v>
-      </c>
-      <c r="C82">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83">
-        <v>20927</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84">
-        <v>21686</v>
-      </c>
-      <c r="B84">
-        <v>3</v>
-      </c>
-      <c r="C84">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85">
-        <v>24724</v>
-      </c>
-      <c r="B85">
-        <v>2</v>
-      </c>
-      <c r="C85">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
